--- a/academycity/academycity/media/research/potential/Y-_1970.xlsx
+++ b/academycity/academycity/media/research/potential/Y-_1970.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name=" GDP " sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="GDP" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Exports" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="High-Tech" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Tertiary" sheetId="4" state="visible" r:id="rId5"/>
@@ -551,14 +551,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
-    <numFmt numFmtId="168" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -583,127 +582,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
@@ -746,7 +625,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,140 +634,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFDEEBF7"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBE5D6"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBF7"/>
-        <bgColor rgb="FFDAE3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFEDEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FF9DC3E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-        <bgColor rgb="FFDAE3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFB4C7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FFA1B8E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9C9C9"/>
-        <bgColor rgb="FFB4C7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FFA1B8E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF5B9BD5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFA7D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFB2B2B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF8FAADC"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
@@ -899,60 +658,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFEDEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFE699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF9C0006"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFA9D18E"/>
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -960,115 +671,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFA1B8E1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF8FAADC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4472C4"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1092,207 +696,65 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="21" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="22" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="23" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="24" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="25" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="26" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="27" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="22" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="28" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="29" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="30" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="31" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="27" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="30" borderId="0" xfId="56" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1300,176 +762,125 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="56" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="20% - Accent1 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent2 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent3 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent4 2" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent5 2" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent6 2" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent1 2" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent2 2" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent3 2" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent4 2" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent5 2" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent6 2" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent1 2" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent2 2" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent3 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent4 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent5 2" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent6 2" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent1 2" xfId="38" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent2 2" xfId="39" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent3 2" xfId="40" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent4 2" xfId="41" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent5 2" xfId="42" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent6 2" xfId="43" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad 2" xfId="44" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Calculation 2" xfId="45" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Check Cell 2" xfId="46" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Comma 2" xfId="47" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text 2" xfId="48" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good 2" xfId="49" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1 2" xfId="50" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2 2" xfId="51" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 3 2" xfId="52" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 4 2" xfId="53" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Input 2" xfId="54" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Linked Cell 2" xfId="55" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral 2" xfId="56" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="57" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note 2" xfId="58" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Output 2" xfId="59" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Title 2" xfId="60" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Total 2" xfId="61" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning Text 2" xfId="62" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFBE5D6"/>
-      <rgbColor rgb="FFA9D18E"/>
-      <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF9C6500"/>
-      <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="FFC9C9C9"/>
-      <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FF8FAADC"/>
-      <rgbColor rgb="FFF8CBAD"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFDEEBF7"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0070C0"/>
-      <rgbColor rgb="FFBDD7EE"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFEDEDED"/>
-      <rgbColor rgb="FFFFD966"/>
-      <rgbColor rgb="FFB4C7E7"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFA1B8E1"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFFFEB9C"/>
-      <rgbColor rgb="FF9DC3E6"/>
-      <rgbColor rgb="FFF4B183"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4472C4"/>
-      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF8001"/>
-      <rgbColor rgb="FFFA7D00"/>
-      <rgbColor rgb="FF44546A"/>
-      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FFFFC7CE"/>
-      <rgbColor rgb="FF3F3F76"/>
-      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1482,8 +893,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A136" activeCellId="0" sqref="A136"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1556,19 +967,19 @@
       <c r="F2" s="4" t="n">
         <v>274.767424066405</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="0" t="n">
         <v>284.366828626749</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>116.592298324819</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="0" t="n">
         <v>256.3758</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="1" t="n">
         <v>135.174377484018</v>
       </c>
     </row>
@@ -1576,34 +987,34 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="3" t="n">
         <v>10924.9636343736</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="1" t="n">
         <v>2455.59781907854</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="0" t="n">
         <v>13602.4123320012</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="7" t="n">
         <v>2441.50981430705</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="1" t="n">
         <v>13815.7398659194</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="0" t="n">
         <v>12994.8019350757</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="0" t="n">
         <v>2869.03312581808</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="0" t="n">
         <v>14849.75</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="0" t="n">
         <v>3020</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="1" t="n">
         <v>2944.26453759848</v>
       </c>
     </row>
@@ -1611,18 +1022,18 @@
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="8" t="n">
         <v>709.457603211038</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>158.764230928666</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="0" t="n">
         <v>130</v>
       </c>
@@ -1634,24 +1045,24 @@
       <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="8" t="n">
         <v>2003.53658148083</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="8" t="n">
         <v>2249.21971329508</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1686,24 +1097,24 @@
       <c r="A7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="8" t="n">
         <v>1767.68839019942</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="8" t="n">
         <v>7301.96621670037</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1738,7 +1149,7 @@
       <c r="A9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="8" t="n">
         <v>12023.544726133</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -1773,7 +1184,7 @@
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="8" t="n">
         <v>9747.44364803084</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -1808,7 +1219,7 @@
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="8" t="n">
         <v>629.766084146034</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1817,16 +1228,16 @@
       <c r="D11" s="0" t="n">
         <v>322.147785912576</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="0" t="n">
         <v>270.224768564684</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="0" t="n">
         <v>274.473</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="1" t="n">
         <v>135.2716196092</v>
       </c>
@@ -1835,7 +1246,7 @@
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="8" t="n">
         <v>10610.8240469817</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1870,7 +1281,7 @@
       <c r="A13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="8" t="n">
         <v>1027.41284716894</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -1905,7 +1316,7 @@
       <c r="A14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="8" t="n">
         <v>2176.3749540405</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -1940,7 +1351,7 @@
       <c r="A15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="8" t="n">
         <v>647.269128456874</v>
       </c>
       <c r="C15" s="1" t="n">
@@ -1952,7 +1363,7 @@
       <c r="E15" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="0" t="n">
         <v>425.663850300938</v>
       </c>
@@ -1973,7 +1384,7 @@
       <c r="A16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="8" t="n">
         <v>3056.71890968693</v>
       </c>
       <c r="C16" s="1" t="n">
@@ -2008,24 +1419,24 @@
       <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="8" t="n">
         <v>4773.22345357257</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="8" t="n">
         <v>744.75192950496</v>
       </c>
       <c r="C18" s="1" t="n">
@@ -2060,7 +1471,7 @@
       <c r="A19" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="8" t="n">
         <v>540.186048028554</v>
       </c>
       <c r="C19" s="1" t="n">
@@ -2072,7 +1483,7 @@
       <c r="E19" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="0" t="n">
         <v>126.606490394194</v>
       </c>
@@ -2093,19 +1504,19 @@
       <c r="A20" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="8" t="n">
         <v>646.998367022094</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>102.313623780981</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="1" t="n">
         <v>103.545863361199</v>
       </c>
@@ -2114,7 +1525,7 @@
       <c r="A21" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="8" t="n">
         <v>981.840677574104</v>
       </c>
       <c r="C21" s="1" t="n">
@@ -2149,7 +1560,7 @@
       <c r="A22" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="8" t="n">
         <v>12050.4905152583</v>
       </c>
       <c r="C22" s="1" t="n">
@@ -2184,7 +1595,7 @@
       <c r="A23" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="8" t="n">
         <v>890.526290659724</v>
       </c>
       <c r="C23" s="1" t="n">
@@ -2196,7 +1607,7 @@
       <c r="E23" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="0" t="n">
         <v>346.080122523859</v>
       </c>
@@ -2217,7 +1628,7 @@
       <c r="A24" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="8" t="n">
         <v>512.980389231919</v>
       </c>
       <c r="C24" s="1" t="n">
@@ -2252,7 +1663,7 @@
       <c r="A25" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="8" t="n">
         <v>5231.42938861252</v>
       </c>
       <c r="C25" s="1" t="n">
@@ -2287,7 +1698,7 @@
       <c r="A26" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="8" t="n">
         <v>778.351857169916</v>
       </c>
       <c r="C26" s="1" t="n">
@@ -2299,7 +1710,7 @@
       <c r="E26" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="0" t="n">
         <v>122.290703369729</v>
       </c>
@@ -2320,7 +1731,7 @@
       <c r="A27" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="8" t="n">
         <v>3094.21643593192</v>
       </c>
       <c r="C27" s="1" t="n">
@@ -2355,7 +1766,7 @@
       <c r="A28" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="8" t="n">
         <v>768.421486673746</v>
       </c>
       <c r="C28" s="1" t="n">
@@ -2390,7 +1801,7 @@
       <c r="A29" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="8" t="n">
         <v>1696.30501418144</v>
       </c>
       <c r="C29" s="1" t="n">
@@ -2425,7 +1836,7 @@
       <c r="A30" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="8" t="n">
         <v>3753.91164507759</v>
       </c>
       <c r="C30" s="1" t="n">
@@ -2460,7 +1871,7 @@
       <c r="A31" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="8" t="n">
         <v>1807.98783184743</v>
       </c>
       <c r="C31" s="1" t="n">
@@ -2472,7 +1883,7 @@
       <c r="E31" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="0" t="n">
         <v>869.992261588879</v>
       </c>
@@ -2493,7 +1904,7 @@
       <c r="A32" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="8" t="n">
         <v>1917.41624999737</v>
       </c>
       <c r="C32" s="1" t="n">
@@ -2502,38 +1913,38 @@
       <c r="D32" s="0" t="n">
         <v>1938.2936279814</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="11" t="n">
         <v>850</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>1899.89954441711</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="13"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="13"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="8" t="n">
         <v>12685.5513469217</v>
       </c>
       <c r="C34" s="1" t="n">
@@ -2551,13 +1962,13 @@
       <c r="G34" s="0" t="n">
         <v>16392.1637459931</v>
       </c>
-      <c r="H34" s="15" t="n">
+      <c r="H34" s="12" t="n">
         <v>3650</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>23463.63</v>
       </c>
-      <c r="J34" s="14" t="n">
+      <c r="J34" s="11" t="n">
         <v>4200</v>
       </c>
       <c r="K34" s="1" t="n">
@@ -2568,7 +1979,7 @@
       <c r="A35" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="8" t="n">
         <v>1561.47016961148</v>
       </c>
       <c r="C35" s="1" t="n">
@@ -2603,7 +2014,7 @@
       <c r="A36" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="8" t="n">
         <v>2845.31066738101</v>
       </c>
       <c r="C36" s="1" t="n">
@@ -2638,7 +2049,7 @@
       <c r="A37" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="8" t="n">
         <v>1254.10462380326</v>
       </c>
       <c r="C37" s="1" t="n">
@@ -2673,7 +2084,7 @@
       <c r="A38" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="8" t="n">
         <v>2186.79338839765</v>
       </c>
       <c r="C38" s="1" t="n">
@@ -2708,24 +2119,24 @@
       <c r="A39" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="8" t="n">
         <v>594.747586421104</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="13"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="1" t="n">
         <v>422.413510435661</v>
       </c>
@@ -2735,7 +2146,7 @@
       <c r="E40" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="0" t="n">
         <v>1384.83249792429</v>
       </c>
@@ -2756,7 +2167,7 @@
       <c r="A41" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="8" t="n">
         <v>9576.86927944664</v>
       </c>
       <c r="C41" s="1" t="n">
@@ -2791,7 +2202,7 @@
       <c r="A42" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="8" t="n">
         <v>11410.0889864787</v>
       </c>
       <c r="C42" s="1" t="n">
@@ -2826,7 +2237,7 @@
       <c r="A43" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="8" t="n">
         <v>5869.35530694349</v>
       </c>
       <c r="C43" s="1" t="n">
@@ -2858,10 +2269,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="8" t="n">
         <v>878.894582611964</v>
       </c>
       <c r="C44" s="1" t="n">
@@ -2873,7 +2284,7 @@
       <c r="E44" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="F44" s="17" t="n">
+      <c r="F44" s="14" t="n">
         <v>354.646577009671</v>
       </c>
       <c r="G44" s="0" t="n">
@@ -2896,7 +2307,7 @@
       <c r="A45" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="8" t="n">
         <v>10839.1450880039</v>
       </c>
       <c r="C45" s="1" t="n">
@@ -2905,21 +2316,21 @@
       <c r="D45" s="0" t="n">
         <v>17463.9080567907</v>
       </c>
-      <c r="E45" s="14" t="n">
+      <c r="E45" s="11" t="n">
         <v>3600</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>17555.7774518686</v>
       </c>
-      <c r="G45" s="15" t="n">
+      <c r="G45" s="12" t="n">
         <v>12129.5349840103</v>
       </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="15" t="n">
+      <c r="H45" s="9"/>
+      <c r="I45" s="12" t="n">
         <v>17755.85</v>
       </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="17" t="n">
+      <c r="J45" s="9"/>
+      <c r="K45" s="14" t="n">
         <v>3006.29378660848</v>
       </c>
     </row>
@@ -2927,7 +2338,7 @@
       <c r="A46" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="8" t="n">
         <v>1423.97299410552</v>
       </c>
       <c r="C46" s="1" t="n">
@@ -2939,7 +2350,7 @@
       <c r="E46" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="0" t="n">
         <v>281.451255519903</v>
       </c>
@@ -2960,7 +2371,7 @@
       <c r="A47" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="11" t="n">
+      <c r="B47" s="8" t="n">
         <v>6210.64538441995</v>
       </c>
       <c r="C47" s="1" t="n">
@@ -2995,7 +2406,7 @@
       <c r="A48" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="11" t="n">
+      <c r="B48" s="8" t="n">
         <v>2918.69300911854</v>
       </c>
       <c r="C48" s="1" t="n">
@@ -3030,24 +2441,24 @@
       <c r="A49" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="11" t="n">
+      <c r="B49" s="8" t="n">
         <v>464.943441064384</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="13"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="11" t="n">
+      <c r="B50" s="8" t="n">
         <v>871.5591974641</v>
       </c>
       <c r="C50" s="1" t="n">
@@ -3056,20 +2467,20 @@
       <c r="D50" s="0" t="n">
         <v>414.027880184257</v>
       </c>
-      <c r="E50" s="14" t="n">
+      <c r="E50" s="11" t="n">
         <v>130</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="0" t="n">
         <v>178.187538000689</v>
       </c>
-      <c r="H50" s="14" t="n">
+      <c r="H50" s="11" t="n">
         <v>150</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>208.3072</v>
       </c>
-      <c r="J50" s="14" t="n">
+      <c r="J50" s="11" t="n">
         <v>150</v>
       </c>
       <c r="K50" s="1" t="n">
@@ -3080,7 +2491,7 @@
       <c r="A51" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="16"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="1" t="n">
         <v>371.523384608555</v>
       </c>
@@ -3090,7 +2501,7 @@
       <c r="E51" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="0" t="n">
         <v>769.126032769507</v>
       </c>
@@ -3111,13 +2522,13 @@
       <c r="A52" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="11" t="n">
+      <c r="B52" s="8" t="n">
         <v>919.180797181238</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="0" t="n">
         <v>637.122301303429</v>
       </c>
@@ -3138,7 +2549,7 @@
       <c r="A53" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="11" t="n">
+      <c r="B53" s="8" t="n">
         <v>1556.14623427825</v>
       </c>
       <c r="C53" s="1" t="n">
@@ -3173,7 +2584,7 @@
       <c r="A54" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="11" t="n">
+      <c r="B54" s="8" t="n">
         <v>5695.37762061127</v>
       </c>
       <c r="C54" s="1" t="n">
@@ -3185,7 +2596,7 @@
       <c r="E54" s="0" t="n">
         <v>930</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="0" t="n">
         <v>6085.32808486992</v>
       </c>
@@ -3206,21 +2617,21 @@
       <c r="A55" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="11" t="n">
+      <c r="B55" s="8" t="n">
         <v>5027.9154507628</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="0" t="n">
         <v>2362.95989319919</v>
       </c>
-      <c r="H55" s="12"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="0" t="n">
         <v>2752.971</v>
       </c>
-      <c r="J55" s="12"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="1" t="n">
         <v>536.18071007062</v>
       </c>
@@ -3229,7 +2640,7 @@
       <c r="A56" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="11" t="n">
+      <c r="B56" s="8" t="n">
         <v>867.992606284658</v>
       </c>
       <c r="C56" s="1" t="n">
@@ -3264,7 +2675,7 @@
       <c r="A57" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="11" t="n">
+      <c r="B57" s="8" t="n">
         <v>1181.30282116971</v>
       </c>
       <c r="C57" s="1" t="n">
@@ -3299,7 +2710,7 @@
       <c r="A58" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="11" t="n">
+      <c r="B58" s="8" t="n">
         <v>4188.82058837637</v>
       </c>
       <c r="C58" s="1" t="n">
@@ -3320,15 +2731,15 @@
       <c r="H58" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="13"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="11" t="n">
+      <c r="B59" s="8" t="n">
         <v>3472.70626359305</v>
       </c>
       <c r="C59" s="1" t="n">
@@ -3337,11 +2748,11 @@
       <c r="D59" s="0" t="n">
         <v>702.88721313406</v>
       </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
       <c r="J59" s="0" t="n">
         <v>390</v>
       </c>
@@ -3353,7 +2764,7 @@
       <c r="A60" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="11" t="n">
+      <c r="B60" s="8" t="n">
         <v>6199.45086607234</v>
       </c>
       <c r="C60" s="1" t="n">
@@ -3362,10 +2773,10 @@
       <c r="D60" s="0" t="n">
         <v>12465.8277397742</v>
       </c>
-      <c r="E60" s="14" t="n">
+      <c r="E60" s="11" t="n">
         <v>2070</v>
       </c>
-      <c r="F60" s="13"/>
+      <c r="F60" s="10"/>
       <c r="G60" s="0" t="n">
         <v>7227.95294372881</v>
       </c>
@@ -3386,7 +2797,7 @@
       <c r="A61" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="11" t="n">
+      <c r="B61" s="8" t="n">
         <v>8100.62318732056</v>
       </c>
       <c r="C61" s="1" t="n">
@@ -3398,7 +2809,7 @@
       <c r="E61" s="0" t="n">
         <v>1750</v>
       </c>
-      <c r="F61" s="13"/>
+      <c r="F61" s="10"/>
       <c r="G61" s="0" t="n">
         <v>9447.51076798924</v>
       </c>
@@ -3419,7 +2830,7 @@
       <c r="A62" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="11" t="n">
+      <c r="B62" s="8" t="n">
         <v>9718.51117476161</v>
       </c>
       <c r="C62" s="1" t="n">
@@ -3454,17 +2865,17 @@
       <c r="A63" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="11" t="n">
+      <c r="B63" s="8" t="n">
         <v>3848.67271979903</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>751.589303464352</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="9"/>
       <c r="E63" s="0" t="n">
         <v>720</v>
       </c>
-      <c r="F63" s="13"/>
+      <c r="F63" s="10"/>
       <c r="G63" s="0" t="n">
         <v>2942.80067629749</v>
       </c>
@@ -3485,7 +2896,7 @@
       <c r="A64" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="11" t="n">
+      <c r="B64" s="8" t="n">
         <v>9713.95143300291</v>
       </c>
       <c r="C64" s="1" t="n">
@@ -3520,19 +2931,19 @@
       <c r="A65" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="11" t="n">
+      <c r="B65" s="8" t="n">
         <v>2395.48311716052</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>424.08471100272</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="1" t="n">
         <v>424.084681697613</v>
       </c>
@@ -3541,7 +2952,7 @@
       <c r="A66" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="11" t="n">
+      <c r="B66" s="8" t="n">
         <v>914.953266484521</v>
       </c>
       <c r="C66" s="1" t="n">
@@ -3576,7 +2987,7 @@
       <c r="A67" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="11" t="n">
+      <c r="B67" s="8" t="n">
         <v>2167.33351943178</v>
       </c>
       <c r="C67" s="1" t="n">
@@ -3600,7 +3011,7 @@
       <c r="I67" s="0" t="n">
         <v>2381.044</v>
       </c>
-      <c r="J67" s="12"/>
+      <c r="J67" s="9"/>
       <c r="K67" s="1" t="n">
         <v>284.217680042603</v>
       </c>
@@ -3609,41 +3020,41 @@
       <c r="A68" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="11" t="n">
+      <c r="B68" s="8" t="n">
         <v>747.66657375026</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="13"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="11" t="n">
+      <c r="B69" s="8" t="n">
         <v>2916.62773455783</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="13"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="11" t="n">
+      <c r="B70" s="8" t="n">
         <v>604.079454468823</v>
       </c>
       <c r="C70" s="1" t="n">
@@ -3678,7 +3089,7 @@
       <c r="A71" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="11" t="n">
+      <c r="B71" s="8" t="n">
         <v>1491.51668558212</v>
       </c>
       <c r="C71" s="1" t="n">
@@ -3690,7 +3101,7 @@
       <c r="E71" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="F71" s="13"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="0" t="n">
         <v>836.553202783323</v>
       </c>
@@ -3711,20 +3122,20 @@
       <c r="A72" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="11" t="n">
+      <c r="B72" s="8" t="n">
         <v>9114.81910920676</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="0" t="n">
         <v>6050.77080842528</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>1850</v>
       </c>
-      <c r="I72" s="12"/>
+      <c r="I72" s="9"/>
       <c r="J72" s="0" t="n">
         <v>1860</v>
       </c>
@@ -3736,7 +3147,7 @@
       <c r="A73" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="11" t="n">
+      <c r="B73" s="8" t="n">
         <v>1226.19968392531</v>
       </c>
       <c r="C73" s="1" t="n">
@@ -3771,7 +3182,7 @@
       <c r="A74" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="11" t="n">
+      <c r="B74" s="8" t="n">
         <v>447.452669781118</v>
       </c>
       <c r="C74" s="1" t="n">
@@ -3783,7 +3194,7 @@
       <c r="E74" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F74" s="13"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="0" t="n">
         <v>121.603890029807</v>
       </c>
@@ -3804,7 +3215,7 @@
       <c r="A75" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="11" t="n">
+      <c r="B75" s="8" t="n">
         <v>2079.15223676598</v>
       </c>
       <c r="C75" s="1" t="n">
@@ -3839,7 +3250,7 @@
       <c r="A76" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="11" t="n">
+      <c r="B76" s="8" t="n">
         <v>585.692756509166</v>
       </c>
       <c r="C76" s="1" t="n">
@@ -3851,7 +3262,7 @@
       <c r="E76" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F76" s="13"/>
+      <c r="F76" s="10"/>
       <c r="G76" s="0" t="n">
         <v>213.446029427359</v>
       </c>
@@ -3872,7 +3283,7 @@
       <c r="A77" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="11" t="n">
+      <c r="B77" s="8" t="n">
         <v>1058.62937883741</v>
       </c>
       <c r="C77" s="1" t="n">
@@ -3884,7 +3295,7 @@
       <c r="E77" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="F77" s="13"/>
+      <c r="F77" s="10"/>
       <c r="G77" s="0" t="n">
         <v>510.980683891595</v>
       </c>
@@ -3905,24 +3316,24 @@
       <c r="A78" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="11" t="n">
+      <c r="B78" s="8" t="n">
         <v>2945.37857525826</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="13"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="11" t="n">
+      <c r="B79" s="8" t="n">
         <v>4319.64599708067</v>
       </c>
       <c r="C79" s="1" t="n">
@@ -3957,24 +3368,24 @@
       <c r="A80" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="11" t="n">
+      <c r="B80" s="8" t="n">
         <v>787.111253606925</v>
       </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="13"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="11" t="n">
+      <c r="B81" s="8" t="n">
         <v>1616.22701223029</v>
       </c>
       <c r="C81" s="1" t="n">
@@ -4009,58 +3420,58 @@
       <c r="A82" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="11" t="n">
+      <c r="B82" s="8" t="n">
         <v>1742.85163196769</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="13"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="11" t="n">
+      <c r="B83" s="8" t="n">
         <v>641.587899203201</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="13"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="11" t="n">
+      <c r="B84" s="8" t="n">
         <v>3321.44050453871</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="13"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="11" t="n">
+      <c r="B85" s="8" t="n">
         <v>653.344271906666</v>
       </c>
       <c r="C85" s="1" t="n">
@@ -4072,7 +3483,7 @@
       <c r="E85" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F85" s="13"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="0" t="n">
         <v>142.411749341094</v>
       </c>
@@ -4093,7 +3504,7 @@
       <c r="A86" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="11" t="n">
+      <c r="B86" s="8" t="n">
         <v>11966.7734139738</v>
       </c>
       <c r="C86" s="1" t="n">
@@ -4128,25 +3539,25 @@
       <c r="A87" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B87" s="11" t="n">
+      <c r="B87" s="8" t="n">
         <v>11189.3354077898</v>
       </c>
-      <c r="C87" s="17" t="n">
+      <c r="C87" s="14" t="n">
         <v>2772.95904797675</v>
       </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="13"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="0" t="n">
         <v>9521.82086808511</v>
       </c>
-      <c r="H87" s="15" t="n">
+      <c r="H87" s="12" t="n">
         <v>2530</v>
       </c>
       <c r="I87" s="0" t="n">
         <v>12920.48</v>
       </c>
-      <c r="J87" s="15" t="n">
+      <c r="J87" s="12" t="n">
         <v>2500</v>
       </c>
       <c r="K87" s="1" t="n">
@@ -4157,7 +3568,7 @@
       <c r="A88" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="11" t="n">
+      <c r="B88" s="8" t="n">
         <v>2811.63278351158</v>
       </c>
       <c r="C88" s="1" t="n">
@@ -4192,7 +3603,7 @@
       <c r="A89" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="11" t="n">
+      <c r="B89" s="8" t="n">
         <v>838.947480363512</v>
       </c>
       <c r="C89" s="1" t="n">
@@ -4204,7 +3615,7 @@
       <c r="E89" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="F89" s="13"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="0" t="n">
         <v>318.68597220941</v>
       </c>
@@ -4225,7 +3636,7 @@
       <c r="A90" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="11" t="n">
+      <c r="B90" s="8" t="n">
         <v>1094.05342953744</v>
       </c>
       <c r="C90" s="1" t="n">
@@ -4237,7 +3648,7 @@
       <c r="E90" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="F90" s="13"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="0" t="n">
         <v>368.150942497813</v>
       </c>
@@ -4258,7 +3669,7 @@
       <c r="A91" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="11" t="n">
+      <c r="B91" s="8" t="n">
         <v>10027.2308704101</v>
       </c>
       <c r="C91" s="1" t="n">
@@ -4293,7 +3704,7 @@
       <c r="A92" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="11" t="n">
+      <c r="B92" s="8" t="n">
         <v>3798.5355478237</v>
       </c>
       <c r="C92" s="1" t="n">
@@ -4305,7 +3716,7 @@
       <c r="E92" s="0" t="n">
         <v>320</v>
       </c>
-      <c r="F92" s="13"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="0" t="n">
         <v>4196.41498132959</v>
       </c>
@@ -4326,7 +3737,7 @@
       <c r="A93" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B93" s="11" t="n">
+      <c r="B93" s="8" t="n">
         <v>951.54223747482</v>
       </c>
       <c r="C93" s="1" t="n">
@@ -4361,7 +3772,7 @@
       <c r="A94" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B94" s="11" t="n">
+      <c r="B94" s="8" t="n">
         <v>3813.75249993795</v>
       </c>
       <c r="C94" s="1" t="n">
@@ -4373,7 +3784,7 @@
       <c r="E94" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="F94" s="13"/>
+      <c r="F94" s="10"/>
       <c r="G94" s="0" t="n">
         <v>2741.15339645464</v>
       </c>
@@ -4394,7 +3805,7 @@
       <c r="A95" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B95" s="16"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="1" t="n">
         <v>265.134435026266</v>
       </c>
@@ -4404,7 +3815,7 @@
       <c r="E95" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="F95" s="13"/>
+      <c r="F95" s="10"/>
       <c r="G95" s="0" t="n">
         <v>636.208603318572</v>
       </c>
@@ -4425,7 +3836,7 @@
       <c r="A96" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="11" t="n">
+      <c r="B96" s="8" t="n">
         <v>1871.78136172498</v>
       </c>
       <c r="C96" s="1" t="n">
@@ -4434,12 +3845,12 @@
       <c r="D96" s="0" t="n">
         <v>719.130999916696</v>
       </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="13"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="0" t="n">
         <v>819.860139431705</v>
       </c>
-      <c r="H96" s="12"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="0" t="n">
         <v>1063.617</v>
       </c>
@@ -4454,7 +3865,7 @@
       <c r="A97" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="11" t="n">
+      <c r="B97" s="8" t="n">
         <v>3854.22351585713</v>
       </c>
       <c r="C97" s="1" t="n">
@@ -4466,7 +3877,7 @@
       <c r="E97" s="0" t="n">
         <v>520</v>
       </c>
-      <c r="F97" s="13"/>
+      <c r="F97" s="10"/>
       <c r="G97" s="0" t="n">
         <v>2074.69342616262</v>
       </c>
@@ -4487,7 +3898,7 @@
       <c r="A98" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B98" s="11" t="n">
+      <c r="B98" s="8" t="n">
         <v>1764.13160024885</v>
       </c>
       <c r="C98" s="1" t="n">
@@ -4522,24 +3933,24 @@
       <c r="A99" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="11" t="n">
+      <c r="B99" s="8" t="n">
         <v>4427.79577905382</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="13"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="11" t="n">
+      <c r="B100" s="8" t="n">
         <v>5472.89975896154</v>
       </c>
       <c r="C100" s="1" t="n">
@@ -4574,24 +3985,24 @@
       <c r="A101" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="11" t="n">
+      <c r="B101" s="8" t="n">
         <v>2852.90714266821</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="13"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="11" t="n">
+      <c r="B102" s="8" t="n">
         <v>716.766974676139</v>
       </c>
       <c r="C102" s="1" t="n">
@@ -4626,7 +4037,7 @@
       <c r="A103" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="11" t="n">
+      <c r="B103" s="8" t="n">
         <v>7623.63627862898</v>
       </c>
       <c r="C103" s="1" t="n">
@@ -4638,7 +4049,7 @@
       <c r="E103" s="0" t="n">
         <v>710</v>
       </c>
-      <c r="F103" s="13"/>
+      <c r="F103" s="10"/>
       <c r="G103" s="0" t="n">
         <v>7672.08221925564</v>
       </c>
@@ -4659,7 +4070,7 @@
       <c r="A104" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="11" t="n">
+      <c r="B104" s="8" t="n">
         <v>1435.17357824065</v>
       </c>
       <c r="C104" s="1" t="n">
@@ -4694,7 +4105,7 @@
       <c r="A105" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B105" s="11" t="n">
+      <c r="B105" s="8" t="n">
         <v>1128.90708247076</v>
       </c>
       <c r="C105" s="1" t="n">
@@ -4729,7 +4140,7 @@
       <c r="A106" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B106" s="11" t="n">
+      <c r="B106" s="8" t="n">
         <v>4439.12698294101</v>
       </c>
       <c r="C106" s="1" t="n">
@@ -4741,7 +4152,7 @@
       <c r="E106" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="F106" s="13"/>
+      <c r="F106" s="10"/>
       <c r="G106" s="0" t="n">
         <v>4530.66603951807</v>
       </c>
@@ -4762,22 +4173,22 @@
       <c r="A107" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="11" t="n">
+      <c r="B107" s="8" t="n">
         <v>1138.27598911247</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>91.7588814554195</v>
       </c>
-      <c r="D107" s="12"/>
+      <c r="D107" s="9"/>
       <c r="E107" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="12"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="9"/>
       <c r="H107" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="I107" s="12"/>
+      <c r="I107" s="9"/>
       <c r="J107" s="0" t="n">
         <v>90</v>
       </c>
@@ -4789,7 +4200,7 @@
       <c r="A108" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="11" t="n">
+      <c r="B108" s="8" t="n">
         <v>4045.14759230003</v>
       </c>
       <c r="C108" s="1" t="n">
@@ -4824,7 +4235,7 @@
       <c r="A109" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B109" s="11" t="n">
+      <c r="B109" s="8" t="n">
         <v>6319.13369745421</v>
       </c>
       <c r="C109" s="1" t="n">
@@ -4859,7 +4270,7 @@
       <c r="A110" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B110" s="11" t="n">
+      <c r="B110" s="8" t="n">
         <v>1498.72570276542</v>
       </c>
       <c r="C110" s="1" t="n">
@@ -4871,7 +4282,7 @@
       <c r="E110" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="F110" s="13"/>
+      <c r="F110" s="10"/>
       <c r="G110" s="0" t="n">
         <v>338.431713600767</v>
       </c>
@@ -4892,7 +4303,7 @@
       <c r="A111" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B111" s="11" t="n">
+      <c r="B111" s="8" t="n">
         <v>888.181194098597</v>
       </c>
       <c r="C111" s="1" t="n">
@@ -4924,10 +4335,10 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="11" t="n">
+      <c r="B112" s="8" t="n">
         <v>2035.5843186249</v>
       </c>
       <c r="C112" s="1" t="n">
@@ -4936,20 +4347,20 @@
       <c r="D112" s="0" t="n">
         <v>880.625357124456</v>
       </c>
-      <c r="E112" s="14" t="n">
+      <c r="E112" s="11" t="n">
         <v>290</v>
       </c>
-      <c r="F112" s="13"/>
+      <c r="F112" s="10"/>
       <c r="G112" s="0" t="n">
         <v>639.197059665871</v>
       </c>
-      <c r="H112" s="14" t="n">
+      <c r="H112" s="11" t="n">
         <v>310</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>835.5859</v>
       </c>
-      <c r="J112" s="14" t="n">
+      <c r="J112" s="11" t="n">
         <v>310</v>
       </c>
       <c r="K112" s="1" t="n">
@@ -4960,7 +4371,7 @@
       <c r="A113" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B113" s="11" t="n">
+      <c r="B113" s="8" t="n">
         <v>13010.9411910979</v>
       </c>
       <c r="C113" s="1" t="n">
@@ -4995,15 +4406,15 @@
       <c r="A114" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B114" s="11" t="n">
+      <c r="B114" s="8" t="n">
         <v>16903.6221477581</v>
       </c>
-      <c r="C114" s="17" t="n">
+      <c r="C114" s="14" t="n">
         <v>3344.78360254639</v>
       </c>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="13"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
       <c r="G114" s="0" t="n">
         <v>25125.3123574278</v>
       </c>
@@ -5024,7 +4435,7 @@
       <c r="A115" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B115" s="11" t="n">
+      <c r="B115" s="8" t="n">
         <v>3540.30673988194</v>
       </c>
       <c r="C115" s="1" t="n">
@@ -5036,7 +4447,7 @@
       <c r="E115" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="F115" s="13"/>
+      <c r="F115" s="10"/>
       <c r="G115" s="0" t="n">
         <v>577.405890441061</v>
       </c>
@@ -5057,24 +4468,24 @@
       <c r="A116" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="11" t="n">
+      <c r="B116" s="8" t="n">
         <v>568.356608780633</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="13"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B117" s="11" t="n">
+      <c r="B117" s="8" t="n">
         <v>1694.27134779337</v>
       </c>
       <c r="C117" s="1" t="n">
@@ -5109,7 +4520,7 @@
       <c r="A118" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B118" s="11" t="n">
+      <c r="B118" s="8" t="n">
         <v>1075.366917727</v>
       </c>
       <c r="C118" s="1" t="n">
@@ -5144,7 +4555,7 @@
       <c r="A119" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="11" t="n">
+      <c r="B119" s="8" t="n">
         <v>8243.97905759162</v>
       </c>
       <c r="C119" s="1" t="n">
@@ -5179,7 +4590,7 @@
       <c r="A120" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B120" s="11" t="n">
+      <c r="B120" s="8" t="n">
         <v>1826.876020647</v>
       </c>
       <c r="C120" s="1" t="n">
@@ -5214,7 +4625,7 @@
       <c r="A121" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B121" s="11" t="n">
+      <c r="B121" s="8" t="n">
         <v>3078.18737436163</v>
       </c>
       <c r="C121" s="1" t="n">
@@ -5226,7 +4637,7 @@
       <c r="E121" s="0" t="n">
         <v>560</v>
       </c>
-      <c r="F121" s="13"/>
+      <c r="F121" s="10"/>
       <c r="G121" s="0" t="n">
         <v>2134.66923088248</v>
       </c>
@@ -5247,19 +4658,19 @@
       <c r="A122" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B122" s="11" t="n">
+      <c r="B122" s="8" t="n">
         <v>867.295986635976</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>133.398351900593</v>
       </c>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
       <c r="K122" s="1" t="n">
         <v>128.368834080717</v>
       </c>
@@ -5268,7 +4679,7 @@
       <c r="A123" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="11" t="n">
+      <c r="B123" s="8" t="n">
         <v>10767.471958585</v>
       </c>
       <c r="C123" s="1" t="n">
@@ -5286,13 +4697,13 @@
       <c r="G123" s="0" t="n">
         <v>13036.1614357204</v>
       </c>
-      <c r="H123" s="15" t="n">
+      <c r="H123" s="12" t="n">
         <v>2430</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>11858.32</v>
       </c>
-      <c r="J123" s="15" t="n">
+      <c r="J123" s="12" t="n">
         <v>2430</v>
       </c>
       <c r="K123" s="1" t="n">
@@ -5303,7 +4714,7 @@
       <c r="A124" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="11" t="n">
+      <c r="B124" s="8" t="n">
         <v>15029.8460878216</v>
       </c>
       <c r="C124" s="1" t="n">
@@ -5338,7 +4749,7 @@
       <c r="A125" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B125" s="11" t="n">
+      <c r="B125" s="8" t="n">
         <v>5184.05374020022</v>
       </c>
       <c r="C125" s="1" t="n">
@@ -5373,7 +4784,7 @@
       <c r="A126" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="11" t="n">
+      <c r="B126" s="8" t="n">
         <v>10671.7622773788</v>
       </c>
       <c r="C126" s="1" t="n">
@@ -5385,7 +4796,7 @@
       <c r="E126" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="F126" s="13"/>
+      <c r="F126" s="10"/>
       <c r="G126" s="0" t="n">
         <v>6278.95831597657</v>
       </c>
@@ -5406,41 +4817,41 @@
       <c r="A127" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="11" t="n">
+      <c r="B127" s="8" t="n">
         <v>735.026848972428</v>
       </c>
-      <c r="C127" s="13"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="13"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="11" t="n">
+      <c r="B128" s="8" t="n">
         <v>1229.9678342206</v>
       </c>
-      <c r="C128" s="13"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="13"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B129" s="11" t="n">
+      <c r="B129" s="8" t="n">
         <v>1073.11485521321</v>
       </c>
       <c r="C129" s="1" t="n">
@@ -5475,7 +4886,7 @@
       <c r="A130" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B130" s="11" t="n">
+      <c r="B130" s="8" t="n">
         <v>1282.42883898119</v>
       </c>
       <c r="C130" s="1" t="n">
@@ -5487,7 +4898,7 @@
       <c r="E130" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F130" s="13"/>
+      <c r="F130" s="10"/>
       <c r="G130" s="0" t="n">
         <v>617.477932930777</v>
       </c>
@@ -5505,74 +4916,74 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="11"/>
+      <c r="B131" s="8"/>
       <c r="K131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="11" t="n">
+      <c r="B132" s="8" t="n">
         <v>3754.51967637353</v>
       </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="13"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="13"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B134" s="11" t="n">
+      <c r="B134" s="8" t="n">
         <v>6466.33987264283</v>
       </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="13"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="20" t="s">
+      <c r="A135" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B135" s="3" t="n">
         <v>5575.01039279368</v>
       </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="13"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="10"/>
     </row>
     <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5846,27 +5257,27 @@
       <c r="C4" s="1" t="n">
         <v>15.53349606184</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="1" t="n">
         <v>14.4522821426065</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="1" t="n">
         <v>6.90374889620294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -5901,12 +5312,12 @@
       <c r="B7" s="1" t="n">
         <v>71.3552280862275</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -5990,7 +5401,7 @@
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="18" t="n">
         <v>3.78771620631261</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -6008,7 +5419,7 @@
       <c r="G11" s="1" t="n">
         <v>13.0809037440395</v>
       </c>
-      <c r="H11" s="21" t="n">
+      <c r="H11" s="18" t="n">
         <v>3.7120584791982</v>
       </c>
     </row>
@@ -6034,7 +5445,7 @@
       <c r="G12" s="1" t="n">
         <v>6585.6640381822</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -6098,12 +5509,12 @@
       <c r="C15" s="1" t="n">
         <v>34.2327375555428</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="1" t="n">
         <v>33.8634452463131</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1" t="n">
         <v>40.8163265306122</v>
       </c>
@@ -6141,12 +5552,12 @@
       <c r="B17" s="1" t="n">
         <v>236.086050960861</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -6184,8 +5595,8 @@
       <c r="C19" s="1" t="n">
         <v>7.50485820311423</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="1" t="n">
         <v>7.38441497082681</v>
       </c>
@@ -6206,13 +5617,13 @@
       <c r="C20" s="1" t="n">
         <v>5.89777776759206</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="1" t="n">
         <v>5.96881231986874</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -6276,12 +5687,12 @@
       <c r="C23" s="1" t="n">
         <v>33.0275357179209</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="1" t="n">
         <v>32.124958518342</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1" t="n">
         <v>16.7658193618172</v>
       </c>
@@ -6348,12 +5759,12 @@
       <c r="C26" s="1" t="n">
         <v>2.81951908549822</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="1" t="n">
         <v>2.91819164991476</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="1" t="n">
         <v>2.81920776229203</v>
       </c>
@@ -6406,7 +5817,7 @@
       <c r="G28" s="1" t="n">
         <v>64.787263990681</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -6421,7 +5832,7 @@
       <c r="D29" s="0" t="n">
         <v>783.731421256395</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="1" t="n">
         <v>71.8750477273466</v>
       </c>
@@ -6468,7 +5879,7 @@
       <c r="C31" s="1" t="n">
         <v>99.3179931677475</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="0" t="n">
         <v>236.432017723093</v>
       </c>
@@ -6495,10 +5906,10 @@
       <c r="D32" s="0" t="n">
         <v>225.934744111913</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -6507,11 +5918,11 @@
       <c r="B33" s="1" t="n">
         <v>176.744853076583</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="1" t="n">
         <v>175.609756097561</v>
       </c>
@@ -6653,11 +6064,11 @@
       <c r="B39" s="1" t="n">
         <v>4.3061764668723</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="1" t="n">
         <v>4.21605556899471</v>
       </c>
@@ -6672,8 +6083,8 @@
       <c r="C40" s="1" t="n">
         <v>204.379425278568</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="1" t="n">
         <v>204.46780343799</v>
       </c>
@@ -6801,16 +6212,16 @@
       <c r="D45" s="0" t="n">
         <v>2046.93351369546</v>
       </c>
-      <c r="E45" s="15" t="n">
+      <c r="E45" s="12" t="n">
         <v>1624.46273838419</v>
       </c>
-      <c r="F45" s="17" t="n">
+      <c r="F45" s="14" t="n">
         <v>488.150546967319</v>
       </c>
-      <c r="G45" s="17" t="n">
+      <c r="G45" s="14" t="n">
         <v>2367.570154282</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -6822,7 +6233,7 @@
       <c r="C46" s="1" t="n">
         <v>54.9712738520548</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="0" t="n">
         <v>176.631484409599</v>
       </c>
@@ -6895,11 +6306,11 @@
       <c r="B49" s="1" t="n">
         <v>13.3041876593681</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="1" t="n">
         <v>14.3589743589744</v>
       </c>
@@ -6914,7 +6325,7 @@
       <c r="C50" s="1" t="n">
         <v>4.61118932977282</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="0" t="n">
         <v>16.157920157021</v>
       </c>
@@ -6938,7 +6349,7 @@
       <c r="C51" s="1" t="n">
         <v>209.762269427982</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="0" t="n">
         <v>926.033344657792</v>
       </c>
@@ -6959,9 +6370,9 @@
       <c r="B52" s="1" t="n">
         <v>8.5633041623684</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="1" t="n">
         <v>11.5428431507973</v>
       </c>
@@ -7008,7 +6419,7 @@
       <c r="C54" s="1" t="n">
         <v>894.633783227235</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="0" t="n">
         <v>2954.94792826471</v>
       </c>
@@ -7029,8 +6440,8 @@
       <c r="B55" s="1" t="n">
         <v>224.126540084021</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="12"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="0" t="n">
         <v>495.371119667215</v>
       </c>
@@ -7115,7 +6526,7 @@
       <c r="F58" s="1" t="n">
         <v>71.3722984276619</v>
       </c>
-      <c r="G58" s="13"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="1" t="n">
         <v>84.5263639241619</v>
       </c>
@@ -7127,12 +6538,12 @@
       <c r="B59" s="1" t="n">
         <v>85.4004373067021</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -7170,12 +6581,12 @@
       <c r="C61" s="1" t="n">
         <v>488.327408973004</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="1" t="n">
         <v>488.328823133827</v>
       </c>
-      <c r="G61" s="13"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="1" t="n">
         <v>261.936785474109</v>
       </c>
@@ -7216,12 +6627,12 @@
       <c r="C63" s="1" t="n">
         <v>249.759323444016</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="1" t="n">
         <v>249.759332263242</v>
       </c>
-      <c r="G63" s="13"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="1" t="n">
         <v>182.985553772071</v>
       </c>
@@ -7259,11 +6670,11 @@
       <c r="B65" s="1" t="n">
         <v>22.6023872679045</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="1" t="n">
         <v>22.5464190981432</v>
       </c>
@@ -7313,7 +6724,7 @@
       <c r="F67" s="1" t="n">
         <v>37.9866573943552</v>
       </c>
-      <c r="G67" s="13"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="1" t="n">
         <v>26.1880149108793</v>
       </c>
@@ -7325,11 +6736,11 @@
       <c r="B68" s="1" t="n">
         <v>2.6813904797231</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="1" t="n">
         <v>26.5388868411353</v>
       </c>
@@ -7341,11 +6752,11 @@
       <c r="B69" s="1" t="n">
         <v>82.6929363285414</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="1" t="n">
         <v>72.6022162781811</v>
       </c>
@@ -7386,12 +6797,12 @@
       <c r="C71" s="1" t="n">
         <v>169.116901265595</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="1" t="n">
         <v>173.164356846952</v>
       </c>
-      <c r="G71" s="13"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="1" t="n">
         <v>154.512635379061</v>
       </c>
@@ -7403,13 +6814,13 @@
       <c r="B72" s="1" t="n">
         <v>1135.56662463969</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="1" t="n">
         <v>1221.66448144433</v>
       </c>
-      <c r="G72" s="13"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="1" t="n">
         <v>1186.80765357503</v>
       </c>
@@ -7450,7 +6861,7 @@
       <c r="C74" s="1" t="n">
         <v>15.5505367242227</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="0" t="n">
         <v>37.5333584487692</v>
       </c>
@@ -7549,11 +6960,11 @@
       <c r="B78" s="1" t="n">
         <v>83.5497578692494</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="1" t="n">
         <v>83.5351089588378</v>
       </c>
@@ -7585,16 +6996,16 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -7629,12 +7040,12 @@
       <c r="B82" s="1" t="n">
         <v>16.5020429211789</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -7643,26 +7054,26 @@
       <c r="B83" s="1" t="n">
         <v>3.9656122192244</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
       <c r="H83" s="1" t="n">
         <v>4.02204677491435</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -7674,12 +7085,12 @@
       <c r="C85" s="1" t="n">
         <v>3.67397388566062</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="1" t="n">
         <v>3.49385765354262</v>
       </c>
-      <c r="G85" s="13"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="1" t="n">
         <v>3.53535353535354</v>
       </c>
@@ -7726,7 +7137,7 @@
       <c r="E87" s="0" t="n">
         <v>1747.62140141844</v>
       </c>
-      <c r="F87" s="17" t="n">
+      <c r="F87" s="14" t="n">
         <v>623.940798878767</v>
       </c>
       <c r="G87" s="1" t="n">
@@ -7772,8 +7183,8 @@
       <c r="C89" s="1" t="n">
         <v>15.8661344659252</v>
       </c>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="1" t="n">
         <v>16.5250563763428</v>
       </c>
@@ -7794,8 +7205,8 @@
       <c r="C90" s="1" t="n">
         <v>18.7903836979151</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="1" t="n">
         <v>19.6181142901358</v>
       </c>
@@ -7842,12 +7253,12 @@
       <c r="C92" s="1" t="n">
         <v>260.937824636331</v>
       </c>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="1" t="n">
         <v>252.974461451095</v>
       </c>
-      <c r="G92" s="13"/>
+      <c r="G92" s="10"/>
       <c r="H92" s="1" t="n">
         <v>197.786998616874</v>
       </c>
@@ -7885,11 +7296,11 @@
       <c r="B94" s="1" t="n">
         <v>71.7691683003612</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
       <c r="H94" s="1" t="n">
         <v>72.3771580345286</v>
       </c>
@@ -7904,7 +7315,7 @@
       <c r="C95" s="1" t="n">
         <v>48.9882242045019</v>
       </c>
-      <c r="D95" s="12"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="0" t="n">
         <v>114.248035684847</v>
       </c>
@@ -7925,12 +7336,12 @@
       <c r="B96" s="1" t="n">
         <v>25.3387080156604</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="12"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="9"/>
       <c r="E96" s="0" t="n">
         <v>158.205893640141</v>
       </c>
-      <c r="F96" s="13"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="1" t="n">
         <v>137.992595744681</v>
       </c>
@@ -7997,11 +7408,11 @@
       <c r="B99" s="1" t="n">
         <v>108.607868529251</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
       <c r="H99" s="1" t="n">
         <v>109.081965197073</v>
       </c>
@@ -8039,11 +7450,11 @@
       <c r="B101" s="1" t="n">
         <v>91.3957345430939</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
       <c r="H101" s="1" t="n">
         <v>91.393867575174</v>
       </c>
@@ -8070,7 +7481,7 @@
       <c r="G102" s="1" t="n">
         <v>21.8865853004292</v>
       </c>
-      <c r="H102" s="13"/>
+      <c r="H102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
@@ -8082,12 +7493,12 @@
       <c r="C103" s="1" t="n">
         <v>470.755352869968</v>
       </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="1" t="n">
         <v>475.516034937718</v>
       </c>
-      <c r="G103" s="13"/>
+      <c r="G103" s="10"/>
       <c r="H103" s="1" t="n">
         <v>412.706701479547</v>
       </c>
@@ -8131,7 +7542,7 @@
       <c r="D105" s="0" t="n">
         <v>175.141083268394</v>
       </c>
-      <c r="E105" s="12"/>
+      <c r="E105" s="9"/>
       <c r="F105" s="1" t="n">
         <v>49.9658692745608</v>
       </c>
@@ -8152,29 +7563,29 @@
       <c r="C106" s="1" t="n">
         <v>1166.75835943391</v>
       </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
       <c r="H106" s="1" t="n">
         <v>748.915662650602</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="13"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="1" t="n">
         <v>10.564745594839</v>
       </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
       <c r="F107" s="1" t="n">
         <v>10.1112133961414</v>
       </c>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
@@ -8238,7 +7649,7 @@
       <c r="C110" s="1" t="n">
         <v>46.7107092157624</v>
       </c>
-      <c r="D110" s="12"/>
+      <c r="D110" s="9"/>
       <c r="E110" s="0" t="n">
         <v>127.217030828557</v>
       </c>
@@ -8271,7 +7682,7 @@
       <c r="F111" s="1" t="n">
         <v>23.6769868620616</v>
       </c>
-      <c r="G111" s="13"/>
+      <c r="G111" s="10"/>
       <c r="H111" s="1" t="n">
         <v>20.595756444813</v>
       </c>
@@ -8364,7 +7775,7 @@
       <c r="C115" s="1" t="n">
         <v>60.0125555351569</v>
       </c>
-      <c r="D115" s="12"/>
+      <c r="D115" s="9"/>
       <c r="E115" s="0" t="n">
         <v>156.155338879297</v>
       </c>
@@ -8385,11 +7796,11 @@
       <c r="B116" s="1" t="n">
         <v>18.4942960949977</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
       <c r="H116" s="1" t="n">
         <v>18.4022199503432</v>
       </c>
@@ -8508,10 +7919,10 @@
       <c r="C121" s="1" t="n">
         <v>21.7566163774108</v>
       </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
       <c r="H121" s="1" t="n">
         <v>16.647320291045</v>
       </c>
@@ -8526,12 +7937,12 @@
       <c r="C122" s="1" t="n">
         <v>31.1514879785646</v>
       </c>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
       <c r="F122" s="1" t="n">
         <v>31.1512094555673</v>
       </c>
-      <c r="G122" s="13"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="1" t="n">
         <v>2.85364859355891</v>
       </c>
@@ -8624,12 +8035,12 @@
       <c r="C126" s="1" t="n">
         <v>253.46341831814</v>
       </c>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
       <c r="F126" s="1" t="n">
         <v>253.540070101107</v>
       </c>
-      <c r="G126" s="13"/>
+      <c r="G126" s="10"/>
       <c r="H126" s="1" t="n">
         <v>295.588098125175</v>
       </c>
@@ -8641,12 +8052,12 @@
       <c r="B127" s="1" t="n">
         <v>0.187226473823399</v>
       </c>
-      <c r="C127" s="13"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
@@ -8655,12 +8066,12 @@
       <c r="B128" s="1" t="n">
         <v>22.6356638991014</v>
       </c>
-      <c r="C128" s="13"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
@@ -8695,70 +8106,70 @@
       <c r="B130" s="1" t="n">
         <v>71.1521895086823</v>
       </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
       <c r="H130" s="1" t="n">
         <v>71.747139809967</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="22" t="s">
+      <c r="A132" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="23" t="n">
+      <c r="B132" s="20" t="n">
         <v>97.0099267307941</v>
       </c>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="24" t="s">
+      <c r="A133" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="23" t="n">
+      <c r="B133" s="20" t="n">
         <v>202.285006204082</v>
       </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="24" t="s">
+      <c r="A134" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="23" t="n">
+      <c r="B134" s="20" t="n">
         <v>228.927241687145</v>
       </c>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B135" s="23" t="n">
+      <c r="B135" s="20" t="n">
         <v>62.0522303827899</v>
       </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8793,7 +8204,7 @@
       <c r="A1" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>154</v>
       </c>
     </row>
@@ -8814,16 +8225,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -8834,10 +8245,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -8896,10 +8307,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -8910,10 +8321,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -8932,10 +8343,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -8994,10 +8405,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -9024,16 +8435,16 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -9084,10 +8495,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -9114,10 +8525,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -9152,10 +8563,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -9166,16 +8577,16 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="13"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -9194,7 +8605,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="1" t="n">
@@ -9226,10 +8637,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="13"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -9304,28 +8715,28 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="13"/>
+      <c r="B71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -9384,10 +8795,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="13"/>
+      <c r="B80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -9414,10 +8825,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="13"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -9532,7 +8943,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="0" t="s">
         <v>108</v>
       </c>
       <c r="B99" s="1" t="n">
@@ -9540,7 +8951,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="0" t="s">
         <v>109</v>
       </c>
       <c r="B100" s="1" t="n">
@@ -9548,7 +8959,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="0" t="s">
         <v>110</v>
       </c>
       <c r="B101" s="1" t="n">
@@ -9596,10 +9007,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="13"/>
+      <c r="B107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
@@ -9634,10 +9045,10 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="13"/>
+      <c r="B112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
@@ -9752,10 +9163,10 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="13"/>
+      <c r="B127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
@@ -9782,7 +9193,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="0" t="s">
         <v>164</v>
       </c>
       <c r="B132" s="1" t="n">
@@ -9790,13 +9201,13 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="13"/>
+      <c r="B133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="0" t="s">
         <v>152</v>
       </c>
       <c r="B134" s="1" t="n">
@@ -9804,10 +9215,10 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B135" s="13"/>
+      <c r="B135" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9838,16 +9249,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9886,8 +9297,8 @@
       <c r="B4" s="0" t="n">
         <v>0.5865</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -9896,7 +9307,7 @@
       <c r="B5" s="0" t="n">
         <v>14.0861</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="0" t="n">
         <v>5</v>
       </c>
@@ -9922,8 +9333,8 @@
       <c r="B7" s="0" t="n">
         <v>0.4515</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -10024,10 +9435,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
@@ -10098,8 +9509,8 @@
       <c r="B20" s="0" t="n">
         <v>1.4757</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -10144,12 +9555,12 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -10200,8 +9611,8 @@
       <c r="B28" s="0" t="n">
         <v>0.6624</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -10210,7 +9621,7 @@
       <c r="B29" s="0" t="n">
         <v>1.6781</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="0" t="n">
         <v>5</v>
       </c>
@@ -10250,16 +9661,16 @@
       <c r="B32" s="0" t="n">
         <v>3.5774</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -10282,8 +9693,8 @@
       <c r="B35" s="0" t="n">
         <v>6.0541</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -10348,8 +9759,8 @@
       <c r="B40" s="0" t="n">
         <v>0.68</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -10380,27 +9791,27 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="0" t="n">
         <v>27</v>
       </c>
@@ -10462,10 +9873,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
@@ -10480,16 +9891,16 @@
       <c r="B51" s="0" t="n">
         <v>1.579</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -10543,7 +9954,7 @@
       <c r="C56" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -10552,7 +9963,7 @@
       <c r="B57" s="0" t="n">
         <v>2.5304</v>
       </c>
-      <c r="C57" s="12"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="0" t="n">
         <v>4</v>
       </c>
@@ -10564,7 +9975,7 @@
       <c r="B58" s="0" t="n">
         <v>2.9198</v>
       </c>
-      <c r="C58" s="12"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="0" t="n">
         <v>4</v>
       </c>
@@ -10576,8 +9987,8 @@
       <c r="B59" s="0" t="n">
         <v>4.8268</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -10656,7 +10067,7 @@
       <c r="B65" s="0" t="n">
         <v>2.0948</v>
       </c>
-      <c r="C65" s="12"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="0" t="n">
         <v>27</v>
       </c>
@@ -10710,8 +10121,8 @@
       <c r="B69" s="0" t="n">
         <v>21.0262</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -10734,8 +10145,8 @@
       <c r="B71" s="0" t="n">
         <v>0.9108</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -10744,8 +10155,8 @@
       <c r="B72" s="0" t="n">
         <v>2.8513</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -10754,7 +10165,7 @@
       <c r="B73" s="0" t="n">
         <v>0.9599</v>
       </c>
-      <c r="C73" s="12"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="0" t="n">
         <v>3</v>
       </c>
@@ -10774,10 +10185,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="12"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="0" t="n">
         <v>4</v>
       </c>
@@ -10792,18 +10203,18 @@
       <c r="B76" s="0" t="n">
         <v>0.1511</v>
       </c>
-      <c r="C76" s="12"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -10834,14 +10245,14 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="26" t="n">
+      <c r="B80" s="23" t="n">
         <v>5.4919</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -10878,24 +10289,24 @@
       <c r="B83" s="0" t="n">
         <v>1.733</v>
       </c>
-      <c r="C83" s="12"/>
+      <c r="C83" s="9"/>
       <c r="D83" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="12"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="0" t="n">
         <v>3</v>
       </c>
@@ -10946,10 +10357,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="12"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="0" t="n">
         <v>0</v>
       </c>
@@ -10986,11 +10397,11 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
       <c r="D92" s="0" t="n">
         <v>0</v>
       </c>
@@ -11002,7 +10413,7 @@
       <c r="B93" s="0" t="n">
         <v>1.8335</v>
       </c>
-      <c r="C93" s="12"/>
+      <c r="C93" s="9"/>
       <c r="D93" s="0" t="n">
         <v>4</v>
       </c>
@@ -11070,10 +10481,10 @@
       <c r="B98" s="0" t="n">
         <v>16.8041</v>
       </c>
-      <c r="C98" s="27" t="n">
+      <c r="C98" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="D98" s="27" t="n">
+      <c r="D98" s="24" t="n">
         <v>28</v>
       </c>
     </row>
@@ -11182,7 +10593,7 @@
       <c r="B106" s="0" t="n">
         <v>6.1482</v>
       </c>
-      <c r="C106" s="12"/>
+      <c r="C106" s="9"/>
       <c r="D106" s="0" t="n">
         <v>8</v>
       </c>
@@ -11194,8 +10605,8 @@
       <c r="B107" s="0" t="n">
         <v>0.2972</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
@@ -11204,8 +10615,8 @@
       <c r="B108" s="0" t="n">
         <v>4.0695</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
@@ -11256,8 +10667,8 @@
       <c r="B112" s="0" t="n">
         <v>0.545</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
@@ -11308,7 +10719,7 @@
       <c r="B116" s="0" t="n">
         <v>0.1711</v>
       </c>
-      <c r="C116" s="12"/>
+      <c r="C116" s="9"/>
       <c r="D116" s="0" t="n">
         <v>0</v>
       </c>
@@ -11426,10 +10837,10 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B125" s="12"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="0" t="n">
         <v>18</v>
       </c>
@@ -11452,20 +10863,20 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
@@ -11482,10 +10893,10 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B130" s="12"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="0" t="n">
         <v>1</v>
       </c>
@@ -11494,36 +10905,36 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="28" t="s">
+      <c r="A132" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="12"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="5" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="19"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="16"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="12"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="5" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="19"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11556,7 +10967,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -11595,7 +11006,7 @@
       <c r="B4" s="0" t="n">
         <v>7.474044</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -11626,7 +11037,7 @@
       <c r="B7" s="0" t="n">
         <v>7.821092</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -11662,11 +11073,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -11763,7 +11174,7 @@
       <c r="B20" s="0" t="n">
         <v>8.23798</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -11777,13 +11188,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="0" t="n">
         <v>65.23486</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="0" t="n">
         <v>65</v>
       </c>
     </row>
@@ -11849,7 +11260,7 @@
       <c r="B28" s="0" t="n">
         <v>9.387405</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -11858,7 +11269,7 @@
       <c r="B29" s="0" t="n">
         <v>18.59336</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -11889,23 +11300,23 @@
       <c r="B32" s="0" t="n">
         <v>25.80946</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="0" t="n">
         <v>93.00704</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="0" t="n">
         <v>78</v>
       </c>
     </row>
@@ -11921,35 +11332,35 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="7" t="n">
+      <c r="B36" s="0" t="n">
         <v>26.16262</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="7" t="n">
+      <c r="B37" s="0" t="n">
         <v>28.43554</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="7" t="n">
+      <c r="B38" s="0" t="n">
         <v>21.52244</v>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="0" t="n">
         <v>22</v>
       </c>
     </row>
@@ -11965,13 +11376,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="7" t="n">
+      <c r="B40" s="0" t="n">
         <v>28.46169</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -11996,11 +11407,11 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="7" t="n">
+      <c r="B43" s="9"/>
+      <c r="C43" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12011,23 +11422,23 @@
       <c r="B44" s="0" t="n">
         <v>8.230627</v>
       </c>
-      <c r="C44" s="12"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="7" t="n">
+      <c r="B46" s="0" t="n">
         <v>14.11421</v>
       </c>
-      <c r="C46" s="7" t="n">
+      <c r="C46" s="0" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12082,14 +11493,14 @@
       <c r="B51" s="0" t="n">
         <v>64.43465</v>
       </c>
-      <c r="C51" s="12"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -12114,13 +11525,13 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="7" t="n">
+      <c r="B55" s="0" t="n">
         <v>63.42813</v>
       </c>
-      <c r="C55" s="7" t="n">
+      <c r="C55" s="0" t="n">
         <v>63</v>
       </c>
     </row>
@@ -12158,13 +11569,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="7" t="n">
+      <c r="B59" s="0" t="n">
         <v>24.38341</v>
       </c>
-      <c r="C59" s="12"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -12222,13 +11633,13 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="7" t="n">
+      <c r="B65" s="0" t="n">
         <v>32.76681</v>
       </c>
-      <c r="C65" s="12"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -12270,7 +11681,7 @@
       <c r="B69" s="0" t="n">
         <v>41.4692</v>
       </c>
-      <c r="C69" s="12"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -12290,7 +11701,7 @@
       <c r="B71" s="0" t="n">
         <v>9.938017</v>
       </c>
-      <c r="C71" s="12"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -12299,7 +11710,7 @@
       <c r="B72" s="0" t="n">
         <v>20.78017</v>
       </c>
-      <c r="C72" s="12"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -12319,7 +11730,7 @@
       <c r="B74" s="0" t="n">
         <v>3.671358</v>
       </c>
-      <c r="C74" s="12"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -12377,13 +11788,13 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="7" t="n">
+      <c r="B80" s="0" t="n">
         <v>83.4281</v>
       </c>
-      <c r="C80" s="7" t="n">
+      <c r="C80" s="0" t="n">
         <v>87</v>
       </c>
     </row>
@@ -12421,11 +11832,11 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -12511,7 +11922,7 @@
       <c r="B92" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C92" s="12"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
@@ -12558,10 +11969,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="7" t="n">
+      <c r="B97" s="0" t="n">
         <v>30.6701</v>
       </c>
       <c r="C97" s="0" t="n">
@@ -12580,10 +11991,10 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="7" t="n">
+      <c r="B99" s="0" t="n">
         <v>62.06414</v>
       </c>
       <c r="C99" s="0" t="n">
@@ -12591,10 +12002,10 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="7" t="n">
+      <c r="B100" s="0" t="n">
         <v>56.07378</v>
       </c>
       <c r="C100" s="0" t="n">
@@ -12602,13 +12013,13 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="7" t="n">
+      <c r="B101" s="0" t="n">
         <v>44.50927</v>
       </c>
-      <c r="C101" s="7" t="n">
+      <c r="C101" s="0" t="n">
         <v>44</v>
       </c>
     </row>
@@ -12679,22 +12090,22 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="12"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B109" s="7" t="n">
+      <c r="B109" s="0" t="n">
         <v>56.21337</v>
       </c>
-      <c r="C109" s="7" t="n">
+      <c r="C109" s="0" t="n">
         <v>56</v>
       </c>
     </row>
@@ -12727,7 +12138,7 @@
       <c r="B112" s="0" t="n">
         <v>18.52023</v>
       </c>
-      <c r="C112" s="12"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
@@ -12747,16 +12158,16 @@
       <c r="B114" s="0" t="n">
         <v>59.95476</v>
       </c>
-      <c r="C114" s="12"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B115" s="7" t="n">
+      <c r="B115" s="0" t="n">
         <v>38.09034</v>
       </c>
-      <c r="C115" s="7" t="n">
+      <c r="C115" s="0" t="n">
         <v>38</v>
       </c>
     </row>
@@ -12838,10 +12249,10 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="7" t="n">
+      <c r="B123" s="0" t="n">
         <v>73.10536</v>
       </c>
       <c r="C123" s="0" t="n">
@@ -12855,7 +12266,7 @@
       <c r="B124" s="0" t="n">
         <v>83.6776</v>
       </c>
-      <c r="C124" s="12"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
@@ -12869,28 +12280,28 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="7" t="n">
+      <c r="B126" s="0" t="n">
         <v>34.95726</v>
       </c>
-      <c r="C126" s="7" t="n">
+      <c r="C126" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="12"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="0" t="n">
         <v>3</v>
       </c>
@@ -12918,36 +12329,36 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="12"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="0" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="12"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12973,8 +12384,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -12987,7 +12398,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -12995,7 +12406,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -13003,7 +12414,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -13011,7 +12422,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -13019,7 +12430,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -13027,7 +12438,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -13035,7 +12446,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -13043,7 +12454,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -13051,7 +12462,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -13059,7 +12470,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -13067,7 +12478,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -13075,7 +12486,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -13083,7 +12494,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -13091,7 +12502,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -13099,7 +12510,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -13107,7 +12518,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -13115,7 +12526,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -13123,7 +12534,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -13131,7 +12542,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -13139,7 +12550,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -13147,7 +12558,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="0" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -13155,7 +12566,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -13163,7 +12574,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -13171,7 +12582,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="0" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -13179,7 +12590,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="0" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -13187,7 +12598,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -13195,7 +12606,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -13203,7 +12614,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="0" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -13211,7 +12622,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -13219,7 +12630,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="0" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -13227,7 +12638,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="0" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="0" t="n">
@@ -13235,7 +12646,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="0" t="n">
@@ -13243,7 +12654,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="0" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="0" t="n">
@@ -13251,7 +12662,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="0" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="0" t="n">
@@ -13259,7 +12670,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="0" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -13267,7 +12678,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="0" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="0" t="n">
@@ -13275,7 +12686,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="0" t="n">
@@ -13283,7 +12694,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="0" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="0" t="n">
@@ -13291,7 +12702,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="0" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="0" t="n">
@@ -13299,7 +12710,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="0" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="0" t="n">
@@ -13307,7 +12718,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="0" t="n">
@@ -13315,7 +12726,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="0" t="n">
@@ -13323,7 +12734,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="0" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="0" t="n">
@@ -13331,7 +12742,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="0" t="n">
@@ -13339,7 +12750,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="0" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="0" t="n">
@@ -13347,7 +12758,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="0" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="0" t="n">
@@ -13355,7 +12766,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="0" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="0" t="n">
@@ -13363,7 +12774,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="0" t="n">
@@ -13371,7 +12782,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="0" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="0" t="n">
@@ -13379,7 +12790,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="0" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="0" t="n">
@@ -13387,7 +12798,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="0" t="n">
@@ -13395,7 +12806,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="0" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="0" t="n">
@@ -13403,7 +12814,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="0" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -13411,7 +12822,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="0" t="n">
@@ -13419,7 +12830,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="0" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="0" t="n">
@@ -13427,7 +12838,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="0" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="0" t="n">
@@ -13435,7 +12846,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="0" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="0" t="n">
@@ -13443,7 +12854,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="0" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="0" t="n">
@@ -13451,7 +12862,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="0" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="0" t="n">
@@ -13459,7 +12870,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="0" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="0" t="n">
@@ -13467,7 +12878,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="0" t="s">
         <v>71</v>
       </c>
       <c r="B62" s="0" t="n">
@@ -13475,7 +12886,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="0" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="0" t="n">
@@ -13483,7 +12894,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="0" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="0" t="n">
@@ -13491,7 +12902,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="0" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="0" t="n">
@@ -13499,7 +12910,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="0" t="n">
@@ -13507,7 +12918,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="0" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="0" t="n">
@@ -13515,7 +12926,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="0" t="s">
         <v>77</v>
       </c>
       <c r="B68" s="0" t="n">
@@ -13523,7 +12934,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="0" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="0" t="n">
@@ -13531,7 +12942,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="0" t="s">
         <v>79</v>
       </c>
       <c r="B70" s="0" t="n">
@@ -13539,7 +12950,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="0" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="0" t="n">
@@ -13547,7 +12958,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="0" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="0" t="n">
@@ -13555,7 +12966,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="0" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="0" t="n">
@@ -13563,7 +12974,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="0" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="0" t="n">
@@ -13571,7 +12982,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="0" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="0" t="n">
@@ -13579,7 +12990,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="0" t="s">
         <v>85</v>
       </c>
       <c r="B76" s="0" t="n">
@@ -13587,7 +12998,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="0" t="s">
         <v>86</v>
       </c>
       <c r="B77" s="0" t="n">
@@ -13595,7 +13006,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="0" t="s">
         <v>87</v>
       </c>
       <c r="B78" s="0" t="n">
@@ -13603,7 +13014,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="0" t="s">
         <v>88</v>
       </c>
       <c r="B79" s="0" t="n">
@@ -13611,7 +13022,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B80" s="0" t="n">
@@ -13619,7 +13030,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="0" t="s">
         <v>90</v>
       </c>
       <c r="B81" s="0" t="n">
@@ -13627,7 +13038,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="0" t="s">
         <v>91</v>
       </c>
       <c r="B82" s="0" t="n">
@@ -13635,7 +13046,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="0" t="s">
         <v>92</v>
       </c>
       <c r="B83" s="0" t="n">
@@ -13643,7 +13054,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="0" t="s">
         <v>93</v>
       </c>
       <c r="B84" s="0" t="n">
@@ -13651,7 +13062,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="0" t="s">
         <v>94</v>
       </c>
       <c r="B85" s="0" t="n">
@@ -13659,7 +13070,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="0" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="0" t="n">
@@ -13667,7 +13078,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B87" s="0" t="n">
@@ -13675,7 +13086,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="0" t="s">
         <v>97</v>
       </c>
       <c r="B88" s="0" t="n">
@@ -13683,7 +13094,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="0" t="s">
         <v>98</v>
       </c>
       <c r="B89" s="0" t="n">
@@ -13691,7 +13102,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="0" t="s">
         <v>99</v>
       </c>
       <c r="B90" s="0" t="n">
@@ -13699,7 +13110,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="0" t="s">
         <v>100</v>
       </c>
       <c r="B91" s="0" t="n">
@@ -13707,7 +13118,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="0" t="s">
         <v>101</v>
       </c>
       <c r="B92" s="0" t="n">
@@ -13715,7 +13126,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="0" t="s">
         <v>102</v>
       </c>
       <c r="B93" s="0" t="n">
@@ -13723,7 +13134,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="0" t="s">
         <v>103</v>
       </c>
       <c r="B94" s="0" t="n">
@@ -13731,7 +13142,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="0" t="s">
         <v>104</v>
       </c>
       <c r="B95" s="0" t="n">
@@ -13739,7 +13150,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="0" t="s">
         <v>105</v>
       </c>
       <c r="B96" s="0" t="n">
@@ -13747,7 +13158,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="0" t="s">
         <v>106</v>
       </c>
       <c r="B97" s="0" t="n">
@@ -13755,7 +13166,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="0" t="s">
         <v>107</v>
       </c>
       <c r="B98" s="0" t="n">
@@ -13763,7 +13174,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="0" t="s">
         <v>108</v>
       </c>
       <c r="B99" s="0" t="n">
@@ -13771,7 +13182,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="0" t="s">
         <v>109</v>
       </c>
       <c r="B100" s="0" t="n">
@@ -13779,7 +13190,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="0" t="s">
         <v>110</v>
       </c>
       <c r="B101" s="0" t="n">
@@ -13787,7 +13198,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="0" t="s">
         <v>111</v>
       </c>
       <c r="B102" s="0" t="n">
@@ -13795,7 +13206,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="0" t="s">
         <v>112</v>
       </c>
       <c r="B103" s="0" t="n">
@@ -13803,7 +13214,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="0" t="s">
         <v>113</v>
       </c>
       <c r="B104" s="0" t="n">
@@ -13811,7 +13222,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="0" t="s">
         <v>114</v>
       </c>
       <c r="B105" s="0" t="n">
@@ -13819,7 +13230,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="0" t="s">
         <v>115</v>
       </c>
       <c r="B106" s="0" t="n">
@@ -13827,7 +13238,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="0" t="s">
         <v>116</v>
       </c>
       <c r="B107" s="0" t="n">
@@ -13835,7 +13246,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="0" t="s">
         <v>117</v>
       </c>
       <c r="B108" s="0" t="n">
@@ -13843,7 +13254,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="0" t="s">
         <v>118</v>
       </c>
       <c r="B109" s="0" t="n">
@@ -13851,7 +13262,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B110" s="0" t="n">
@@ -13859,7 +13270,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="0" t="s">
         <v>120</v>
       </c>
       <c r="B111" s="0" t="n">
@@ -13867,7 +13278,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="0" t="s">
         <v>121</v>
       </c>
       <c r="B112" s="0" t="n">
@@ -13875,7 +13286,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="0" t="s">
         <v>122</v>
       </c>
       <c r="B113" s="0" t="n">
@@ -13883,7 +13294,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="0" t="s">
         <v>123</v>
       </c>
       <c r="B114" s="0" t="n">
@@ -13891,7 +13302,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="0" t="s">
         <v>124</v>
       </c>
       <c r="B115" s="0" t="n">
@@ -13899,7 +13310,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="0" t="s">
         <v>125</v>
       </c>
       <c r="B116" s="0" t="n">
@@ -13907,7 +13318,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="0" t="s">
         <v>126</v>
       </c>
       <c r="B117" s="0" t="n">
@@ -13915,7 +13326,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="0" t="s">
         <v>127</v>
       </c>
       <c r="B118" s="0" t="n">
@@ -13923,7 +13334,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="0" t="s">
         <v>128</v>
       </c>
       <c r="B119" s="0" t="n">
@@ -13931,7 +13342,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B120" s="0" t="n">
@@ -13939,7 +13350,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="0" t="s">
         <v>130</v>
       </c>
       <c r="B121" s="0" t="n">
@@ -13947,7 +13358,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="0" t="s">
         <v>131</v>
       </c>
       <c r="B122" s="0" t="n">
@@ -13955,7 +13366,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="0" t="s">
         <v>132</v>
       </c>
       <c r="B123" s="0" t="n">
@@ -13963,7 +13374,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="0" t="s">
         <v>133</v>
       </c>
       <c r="B124" s="0" t="n">
@@ -13971,7 +13382,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="0" t="s">
         <v>134</v>
       </c>
       <c r="B125" s="0" t="n">
@@ -13979,7 +13390,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="0" t="s">
         <v>135</v>
       </c>
       <c r="B126" s="0" t="n">
@@ -13987,7 +13398,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="0" t="s">
         <v>136</v>
       </c>
       <c r="B127" s="0" t="n">
@@ -13995,7 +13406,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="0" t="s">
         <v>137</v>
       </c>
       <c r="B128" s="0" t="n">
@@ -14003,7 +13414,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B129" s="0" t="n">
@@ -14011,7 +13422,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B130" s="0" t="n">
@@ -14019,7 +13430,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B132" s="5" t="n">
@@ -14027,10 +13438,10 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="12"/>
+      <c r="B133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
@@ -14041,10 +13452,10 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B135" s="12"/>
+      <c r="B135" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14064,7 +13475,7 @@
   </sheetPr>
   <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -14099,16 +13510,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -14119,10 +13530,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -14197,10 +13608,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -14219,10 +13630,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -14313,16 +13724,16 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -14365,16 +13776,16 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -14441,10 +13852,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -14455,10 +13866,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -14509,16 +13920,16 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -14561,10 +13972,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -14583,16 +13994,16 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="12"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="12"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -14611,10 +14022,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -14657,10 +14068,10 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="12"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -14671,10 +14082,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="12"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -14685,22 +14096,22 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="12"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="12"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="12"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -14783,10 +14194,10 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B95" s="12"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
@@ -14813,10 +14224,10 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="12"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -14827,10 +14238,10 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="12"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
@@ -14873,10 +14284,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="12"/>
+      <c r="B107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
@@ -14943,10 +14354,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="12"/>
+      <c r="B116" s="9"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
@@ -14989,10 +14400,10 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B122" s="12"/>
+      <c r="B122" s="9"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
@@ -15027,16 +14438,16 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="12"/>
+      <c r="B127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="12"/>
+      <c r="B128" s="9"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
@@ -15055,28 +14466,28 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="32" t="s">
+      <c r="A132" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="12"/>
+      <c r="B132" s="9"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="12"/>
+      <c r="B133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="32" t="s">
+      <c r="A134" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B134" s="12"/>
+      <c r="B134" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B135" s="12"/>
+      <c r="B135" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
